--- a/output/fit_clients/fit_round_54.xlsx
+++ b/output/fit_clients/fit_round_54.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6711363559.576821</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004143443889338369</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2857741042344056</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.148031052270489</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5902153265173787</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.148031052270489</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5160746598.893724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005400459073961658</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.917236826155865</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9159613226478295</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.917236826155865</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4497884991.777102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002572297839248149</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.599804318259777</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9673295030839878</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.599804318259777</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3676088393.659983</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004772273231763788</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.842516175905029</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8372432517238757</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.842516175905029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>8015432747.311585</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002683491085794436</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.488717510944306</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.84952462223424</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.488717510944306</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7091794441.038004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001045672994803166</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.04282854332740247</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.794396458659823</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.3750890098652985</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.794396458659823</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7212393709.178136</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002437427280517794</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.551223011437587</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9566189777328498</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.551223011437587</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6939092846.614255</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004750147766914389</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.510682089841788</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9125206149158235</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.510682089841788</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3860069434.760745</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004963417687266189</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.913799702177551</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9447550168851973</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.913799702177551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3783128793.180606</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001253775114571492</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.770541201973574</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7929856149843886</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.770541201973574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6110744106.950485</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001995904009701201</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.734901429785229</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.006991094128141</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.734901429785229</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6616211184.79861</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003865155319676593</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.597776409747593</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.012188533364537</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.597776409747593</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8412181199.246891</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003223858544880533</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.225014493369646</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8977527973213739</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.225014493369646</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7627509708.19722</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004552976823939414</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.338189856725561</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9779646507926691</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.338189856725561</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7420950528.867908</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003864751993624776</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.146591308035418</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9057659548386379</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.146591308035418</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5061648083.567534</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003368512883796174</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.338442140397154</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9479778478097108</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.338442140397154</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5832927700.152651</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001272920595868746</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8934691457827256</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.228625726678786</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.248370243760348</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-4.228625726678786</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3623345176.380207</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001467336188336082</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.831521089090959</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9012347232974403</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.831521089090959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6270020957.004742</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001328298312294067</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.579824848998838</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8408294885885668</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.579824848998838</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7881395320.332908</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.003961748534758678</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.887589604240389</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8458136980693916</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.887589604240389</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4385863163.134464</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004345083331668018</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.046693259753124</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.814757573314385</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.046693259753124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6841799842.64222</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001550621344523164</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.338422198703183</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8323719031856655</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.338422198703183</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5921849694.930137</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.00353494666425059</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.341108586224228</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9946647304510181</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.341108586224228</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6212088742.745921</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003117564252488098</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.702973708499303</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9512184917618066</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.702973708499303</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5231698526.040524</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009045604072584878</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8041969839605438</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.461062814456245</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.027795972501978</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.461062814456245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7995126669.008521</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002741792058040057</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.4696255133852481</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.745812391547519</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.8168412020203619</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.745812391547519</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6340419850.454776</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004776896133603431</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.969700377296209</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8954850341721132</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.969700377296209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5955851954.000762</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001462115834762518</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.339374439205003</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9832043414912877</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.339374439205003</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6275992651.618612</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003188680384263478</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.947734789213535</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9000603954489459</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.947734789213535</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5269402617.063226</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003451450349408143</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>13</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.2824501861191226</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.795053564082794</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.5848949406488094</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.795053564082794</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4226226982.818988</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001259834639677781</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.521234156201469</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.946904789618191</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.521234156201469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>4864369384.065408</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002761339328709079</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.513294270829959</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8542181854290725</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.513294270829959</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5707046479.626458</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004223690940403896</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6877680036212466</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.381247590739163</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8799827725578027</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.381247590739163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>7089791902.507852</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001907788531355497</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.936817750888199</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9193296983564616</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.936817750888199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>8182785109.619283</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003828793335703177</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.23075368628046</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.023257603510377</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.23075368628046</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4153364717.472977</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00483311091660848</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.998762889032681</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.007058943886664</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.998762889032681</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4551707800.56337</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004040671364156198</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.861075800003605</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.902362092406964</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.861075800003605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6145008483.942833</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002792881291266767</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.9718927389552136</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.137393555566795</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.183518377623634</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.137393555566795</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5946118666.577901</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003638173324868493</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.432729349220199</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.133206387305586</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.837923119734167</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.133206387305586</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6326174904.757151</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001265368124892177</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.255135312004261</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9248868485635018</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.255135312004261</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5501772214.737686</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003867444913196125</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.84068021884494</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9737554052073574</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.84068021884494</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4633192183.761066</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003159966851287115</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.353794901597426</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.932652256701487</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.353794901597426</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6450156274.622116</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001789298759608754</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.841916571640432</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9282817215620128</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.841916571640432</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4023801247.181679</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001638340016213578</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.225707430144366</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9469336522298507</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.225707430144366</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7717389507.924092</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005309820356529186</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.968019823239694</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8235620514313393</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.968019823239694</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8739555301.110937</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.00207614957187735</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
         <v>9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.151305042016818</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9114208050467351</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.151305042016818</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7209335605.771918</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003384743510741719</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.967833587897482</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9651827480738316</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.967833587897482</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4912832491.345063</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004538427127785666</v>
       </c>
       <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>13</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.853878608476699</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.863892678698534</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.853878608476699</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6341617152.21321</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003068667227001112</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.540404748656133</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.047066252592783</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.540404748656133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5346139923.72251</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005667880402959509</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>14</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.697192122372456</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9316202202836209</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.697192122372456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7139347217.923136</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001428941330805629</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.0102167407752</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8542501796553692</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.0102167407752</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6339473569.291072</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003001615399482115</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.249198346163217</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9337563289360793</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.249198346163217</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5735010583.528527</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003875756645094023</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.745433301747962</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8470148352761482</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.745433301747962</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5972512538.975355</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.00371168533832168</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.620508533733776</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8792760314839528</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.620508533733776</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5652447845.559737</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002791192916162763</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.269857124398444</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9215387853760166</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.269857124398444</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5540461663.678053</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004186687882137296</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>12</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.782904180278958</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8097003360772819</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.782904180278958</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4980619864.455957</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002606054555909451</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>14</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.481312899208668</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8046282966537578</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.481312899208668</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7045344999.178498</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004422024106501743</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.039915760187042</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8966196327107115</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.039915760187042</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3840572941.277281</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003541495160511033</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>12</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8680592592035026</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.703487410844126</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.087078387075678</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.703487410844126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5212326353.710903</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005821087880735861</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.218340098036955</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9238609289922366</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.218340098036955</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4381658027.638906</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003119151010699619</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.524171235023227</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8686187303855842</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.524171235023227</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8219777009.697463</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.006059079583436314</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>14</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.07145402167655161</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.591633425262136</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.3506712229419129</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.591633425262136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4715163990.095122</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005424448482242519</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9843880528263987</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.602093588875644</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.262631282267136</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.602093588875644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7587362511.412224</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005572803241749216</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>11</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2121367038121967</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.393486654926056</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.5099743921683394</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.393486654926056</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5528541165.277025</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003605564146748112</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.270445777012631</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9192999690833725</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.270445777012631</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7543068422.931318</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003745351406891093</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.730714328377054</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9000148464166983</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.730714328377054</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8052352579.65354</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002829689848076967</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>12</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.692169525814118</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7293666021797465</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.692169525814118</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4556782970.303608</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008227778235198151</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.715509973171494</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9873594662507937</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.715509973171494</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5708820383.412246</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.00318075571377602</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.736501594135209</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9181338636460602</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.736501594135209</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3895704960.706491</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003716757475690729</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.595740769005828</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8234956771658304</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.595740769005828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7473190010.884511</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001862852326242992</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6069458628092712</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.718668465412599</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.086718218689543</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.718668465412599</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7232316378.730459</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009562153468624708</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.40059214549064</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9641430124234889</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.40059214549064</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6196885047.857066</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.00463453081459581</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.170301915012555</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8873636436197321</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.170301915012555</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6920026171.936154</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003854084401672736</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.80486942652674</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8470309685835739</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.80486942652674</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6987500441.515169</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.00245288609563284</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.810986631192272</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9114807766042166</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.810986631192272</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7713494965.316703</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005184915766336127</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.959419166058305</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.00184853326369</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.959419166058305</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5047897961.08333</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003457387155134247</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>14</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.666083468053711</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8874406396074163</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.666083468053711</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5669621802.165697</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001703682445874452</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.842963866621373</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9768545879788011</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.842963866621373</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5205710630.632717</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002621043462125428</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.018983459183397</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9577810302083297</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.018983459183397</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6833264869.71686</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003227903079384916</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.568810506511539</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9758132847625988</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.568810506511539</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8723159168.92597</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005113797056457337</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>12</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.904522637186262</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.267700364769574</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.904522637186262</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9737192737.495401</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003510058632888121</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>17</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.33323502820364</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7943698686875715</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.33323502820364</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7077768553.103775</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.00437311094876878</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>14</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.602676228809582</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9338294997679806</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.602676228809582</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5523017858.67912</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003539351946694882</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>15</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.2226990130280879</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.487078166221839</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.3855472818902138</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.487078166221839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8662073073.94606</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002513250968496848</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.089040746358101</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9800973518580361</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.089040746358101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4052291444.686841</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001366943878109134</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>17</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.3469932207113172</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.388201201733264</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.6632634528257576</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.388201201733264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8875098350.36544</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004804537563142659</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.876290356658918</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8384403683813675</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.876290356658918</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>8221064434.287456</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004339715405464368</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.048422331388362</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.45133546692422</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.048422331388362</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7564488258.136774</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002532152334765219</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.007035180707961</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9436493318337038</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.007035180707961</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6275231062.417871</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003670966753595274</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.787083399892407</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.837128991628496</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.787083399892407</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3630057314.523486</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003264266021508345</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.151193980745699</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.038264514548511</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.151193980745699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7446239051.477616</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001350589810957936</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.739039741009432</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9046730385792329</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.739039741009432</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>4707866175.076764</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001336256935976428</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.97255825633753</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.03224027267726</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.97255825633753</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5170572926.365172</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002309924707082288</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.353218699698735</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9304254949070426</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.353218699698735</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9676599885.141243</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003335011767295476</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>15</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.597318562632772</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9058413866419897</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.597318562632772</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6122651398.331761</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005761686129363027</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9814393645962737</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.084022381237036</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.238242778446849</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.084022381237036</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6801083984.232659</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004822006387496368</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.9196879163067894</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.050840776242396</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.172820636609986</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.050840776242396</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2975340084.317809</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00564056974946015</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.770390638040262</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8897442655396481</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.770390638040262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4697888883.314041</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003472945225937122</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.351020314404142</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8445137708381548</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.351020314404142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5769087791.705293</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001117564168529398</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5542268991788246</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.914110483154845</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8615199307474324</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.914110483154845</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_54.xlsx
+++ b/output/fit_clients/fit_round_54.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6711363559.576821</v>
+        <v>2233835699.954333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004143443889338369</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13</v>
+        <v>0.08838277211057996</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03394900884748243</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1116917876.930369</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5160746598.893724</v>
+        <v>2029861988.62651</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005400459073961658</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+        <v>0.1157505327995307</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04816553978443436</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1014931038.873128</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4497884991.777102</v>
+        <v>4214369991.460396</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002572297839248149</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
+        <v>0.1515661048191335</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02966298900486777</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2107185024.972372</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3676088393.659983</v>
+        <v>3937482427.092417</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004772273231763788</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09146280173351083</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03931865403491489</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1968741221.298859</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>8015432747.311585</v>
+        <v>2032778613.47581</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002683491085794436</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
+        <v>0.1124201285327981</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04835438789790415</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1016389332.663972</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7091794441.038004</v>
+        <v>2054123736.820219</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001045672994803166</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.0637480938259017</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04598530485355101</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1027061924.21962</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7212393709.178136</v>
+        <v>3285246777.880075</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002437427280517794</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+        <v>0.1805385861403478</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0329936288687062</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1642623475.469032</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6939092846.614255</v>
+        <v>2103184187.096092</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004750147766914389</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>17</v>
+        <v>0.1587829020568734</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02961092795982585</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1051592105.716514</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3860069434.760745</v>
+        <v>5141385883.623359</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004963417687266189</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.164495461621166</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05357838521240912</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2570693051.936514</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3783128793.180606</v>
+        <v>4290156417.589612</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001253775114571492</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1463337694908753</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04501864392507623</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2145078241.592455</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6110744106.950485</v>
+        <v>3202866603.127088</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001995904009701201</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15</v>
+        <v>0.1421777628259376</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04245975385618848</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1601433338.018167</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6616211184.79861</v>
+        <v>5061329860.729486</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003865155319676593</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>11</v>
+        <v>0.06850847552710283</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02729584854083755</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2530664931.244104</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8412181199.246891</v>
+        <v>2992906379.868357</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003223858544880533</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13</v>
+        <v>0.1351270812230181</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03182533472179738</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>17</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1496453224.76968</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7627509708.19722</v>
+        <v>1422206566.512743</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004552976823939414</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16</v>
+        <v>0.08267006253775015</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03892960870478291</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>711103350.9898901</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7420950528.867908</v>
+        <v>2814198109.480933</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003864751993624776</v>
-      </c>
-      <c r="G16" t="b">
+        <v>0.07803485601052798</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03743767539784382</v>
+      </c>
+      <c r="H16" t="b">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>16</v>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1407099057.358682</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5061648083.567534</v>
+        <v>3317688341.006318</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003368512883796174</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11</v>
+        <v>0.1605423336207989</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05263933487323338</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1658844238.693051</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5832927700.152651</v>
+        <v>2468535186.346207</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001272920595868746</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15</v>
+        <v>0.1483454262375404</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03032868057191007</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1234267661.804544</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3623345176.380207</v>
+        <v>1331475213.560786</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001467336188336082</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1420569810350123</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01978720516681234</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>665737716.5713689</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6270020957.004742</v>
+        <v>2557786528.788281</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001328298312294067</v>
-      </c>
-      <c r="G20" t="b">
+        <v>0.1084498720520713</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01999312052570127</v>
+      </c>
+      <c r="H20" t="b">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
-        <v>2</v>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1278893231.179676</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7881395320.332908</v>
+        <v>1803479122.481217</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003961748534758678</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
+        <v>0.08620605652224916</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04433525505749886</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>901739615.7780235</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4385863163.134464</v>
+        <v>3421088233.391462</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004345083331668018</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1012500724545814</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05364139684060115</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1710544152.884572</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6841799842.64222</v>
+        <v>1552137555.068671</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001550621344523164</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
+        <v>0.1496842888394741</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03596744140473063</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>776068754.5553821</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5921849694.930137</v>
+        <v>2688976217.438829</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00353494666425059</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>15</v>
+        <v>0.1352322051043588</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03413525328698278</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1344488164.775072</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6212088742.745921</v>
+        <v>1030641411.550559</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003117564252488098</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>11</v>
+        <v>0.08905603339032413</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03025333415091577</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>515320762.5792654</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5231698526.040524</v>
+        <v>1206437227.093515</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009045604072584878</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1044834480290735</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02751338204843482</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>603218636.0086371</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7995126669.008521</v>
+        <v>4712322094.70956</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002741792058040057</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>0.125397717196425</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0238985837798057</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2356161021.993269</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6340419850.454776</v>
+        <v>3557124183.176344</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004776896133603431</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>14</v>
+        <v>0.1058750139623674</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04235027495212379</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1778562151.049778</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5955851954.000762</v>
+        <v>3761346909.368319</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001462115834762518</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>14</v>
+        <v>0.09345585555927767</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04248891365958287</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1880673488.046546</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6275992651.618612</v>
+        <v>1475359924.182562</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003188680384263478</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>17</v>
+        <v>0.1218706865468037</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02788494217237701</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>737679939.6593729</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5269402617.063226</v>
+        <v>1242558875.902679</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003451450349408143</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>11</v>
+        <v>0.09793151328156924</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04386678280384292</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>621279379.2716695</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4226226982.818988</v>
+        <v>1660871985.118268</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001259834639677781</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08739194769792462</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03740748757206508</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>830436094.0970922</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>4864369384.065408</v>
+        <v>2407778055.797315</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002761339328709079</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11</v>
+        <v>0.2092033203981794</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05549785871526806</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1203889073.833513</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5707046479.626458</v>
+        <v>1129478293.324773</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004223690940403896</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>17</v>
+        <v>0.07414995145152606</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.019792086740418</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>564739163.2082651</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>7089791902.507852</v>
+        <v>1033285147.798643</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001907788531355497</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>13</v>
+        <v>0.1064988471700945</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04169060762063978</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>516642585.0567889</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>8182785109.619283</v>
+        <v>2768260222.128878</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003828793335703177</v>
-      </c>
-      <c r="G36" t="b">
+        <v>0.1792495887883938</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02606359013781959</v>
+      </c>
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="H36" t="n">
-        <v>15</v>
+      <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1384130111.429808</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4153364717.472977</v>
+        <v>2443723549.556377</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00483311091660848</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.09768556843088377</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03162609573074864</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>15</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1221861862.972154</v>
       </c>
     </row>
     <row r="38">
@@ -1491,19 +1717,25 @@
         <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4551707800.56337</v>
+        <v>1586679676.895111</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004040671364156198</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08690706615735767</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03790654071041824</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>793339875.3208026</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6145008483.942833</v>
+        <v>2083330717.805756</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002792881291266767</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
+        <v>0.1838518694408494</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03073553112411707</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1041665340.661056</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5946118666.577901</v>
+        <v>1806505009.899914</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003638173324868493</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>15</v>
+        <v>0.1419055688986227</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05817659376223093</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>903252394.290186</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6326174904.757151</v>
+        <v>2504452922.697559</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001265368124892177</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1212372525671147</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03752224365529911</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>15</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1252226486.044817</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5501772214.737686</v>
+        <v>3250906041.598454</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003867444913196125</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>13</v>
+        <v>0.0895523656988102</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03694651089617743</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1625452998.388691</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>565</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2840494618.508021</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1943808808974127</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01835810700903667</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="n">
-        <v>493</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4633192183.761066</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.003159966851287115</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
+      <c r="I43" t="n">
+        <v>18</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1420247323.569781</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6450156274.622116</v>
+        <v>2245392888.397043</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001789298759608754</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>15</v>
+        <v>0.07046011841491048</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02363369738037325</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1122696599.362432</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4023801247.181679</v>
+        <v>1945819270.953928</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001638340016213578</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.119824076150045</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03975672246812793</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>972909620.7512673</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7717389507.924092</v>
+        <v>4972820703.496703</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005309820356529186</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
+        <v>0.165912442686961</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04191598078773091</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>19</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2486410376.868121</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8739555301.110937</v>
+        <v>3226554874.954949</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00207614957187735</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1642573980190198</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04776913859091083</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>14</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1613277392.637749</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7209335605.771918</v>
+        <v>4212693283.332076</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003384743510741719</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
+        <v>0.1086511018038743</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02759223485382654</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2106346663.55999</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4912832491.345063</v>
+        <v>1702246510.458578</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004538427127785666</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1224404871755596</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03723974419797123</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>851123255.6823075</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6341617152.21321</v>
+        <v>3388791796.068957</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003068667227001112</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>15</v>
+        <v>0.1256048437604892</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03254703429558525</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>18</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1694395930.078026</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5346139923.72251</v>
+        <v>1343527716.673108</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005667880402959509</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1359647112704123</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04776546943480638</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>671763886.5201657</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7139347217.923136</v>
+        <v>3501232793.410499</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001428941330805629</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>13</v>
+        <v>0.09037803562229063</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05013196506913163</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>22</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1750616482.420296</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6339473569.291072</v>
+        <v>2314044936.452267</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003001615399482115</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
+        <v>0.1525926882122734</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03548934040569141</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1157022547.890089</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5735010583.528527</v>
+        <v>3844662738.715531</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003875756645094023</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>14</v>
+        <v>0.1082840649930468</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0421260022322853</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>17</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1922331421.094608</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5972512538.975355</v>
+        <v>3923428628.653885</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00371168533832168</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>17</v>
+        <v>0.1516368449378536</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03094425970441845</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1961714285.758133</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5652447845.559737</v>
+        <v>1335285991.015064</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002791192916162763</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>8</v>
+        <v>0.1285586595484094</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04819641361059476</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>667643061.9934932</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5540461663.678053</v>
+        <v>3115942950.425848</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004186687882137296</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+        <v>0.1218050893293637</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01662871411570351</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>17</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1557971489.223059</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4980619864.455957</v>
+        <v>1635153904.199802</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002606054555909451</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>12</v>
+        <v>0.1792947076128673</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03128638958685349</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>817576970.7741793</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7045344999.178498</v>
+        <v>4900007160.463919</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004422024106501743</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
+        <v>0.1047738518864835</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03259806189143755</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2450003512.660372</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>490</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2943139251.911688</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1857680039854163</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02190184155745369</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
       </c>
-      <c r="D60" t="n">
-        <v>424</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3840572941.277281</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.003541495160511033</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+      <c r="I60" t="n">
+        <v>17</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1471569690.208508</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5212326353.710903</v>
+        <v>2659594373.956369</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005821087880735861</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>12</v>
+        <v>0.1270670911616312</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03027587527673074</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>18</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1329797199.422149</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4381658027.638906</v>
+        <v>1456138624.319326</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003119151010699619</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
+        <v>0.1293568744317649</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03649160666014142</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>728069288.5332277</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8219777009.697463</v>
+        <v>4927721980.194125</v>
       </c>
       <c r="F63" t="n">
-        <v>0.006059079583436314</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>13</v>
+        <v>0.06719783763203142</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0412962537251939</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2463861010.953323</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4715163990.095122</v>
+        <v>3738789354.345782</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005424448482242519</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1210593621455127</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02410294770679969</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>17</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1869394694.535522</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>527</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4272744227.553362</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1251085989873949</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02589026300576491</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>507</v>
-      </c>
-      <c r="E65" t="n">
-        <v>7587362511.412224</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.005572803241749216</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>13</v>
+      <c r="I65" t="n">
+        <v>19</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2136372115.943017</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5528541165.277025</v>
+        <v>4347781657.891744</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003605564146748112</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1499527400142508</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03191525723301961</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2173890821.024632</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7543068422.931318</v>
+        <v>2116090580.83194</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003745351406891093</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.07989248171762672</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04245290869601672</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>17</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1058045383.388059</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8052352579.65354</v>
+        <v>4188206358.109052</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002829689848076967</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>11</v>
+        <v>0.1487251212543387</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03869559317520545</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>17</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2094103186.131531</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4556782970.303608</v>
+        <v>2027315187.649388</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008227778235198151</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>12</v>
+        <v>0.1302388382661798</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05608365375519527</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1013657602.200427</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5708820383.412246</v>
+        <v>2315897972.62284</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00318075571377602</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13</v>
+        <v>0.09400134274402995</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04133752007161712</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1157948918.651364</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3895704960.706491</v>
+        <v>3857852424.143915</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003716757475690729</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.138237950748298</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02306330091498583</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1928926232.39922</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7473190010.884511</v>
+        <v>1827815553.82394</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001862852326242992</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>11</v>
+        <v>0.1068728970853024</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03666742068689075</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>913907750.8992063</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7232316378.730459</v>
+        <v>3357235970.870139</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009562153468624708</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>12</v>
+        <v>0.08351653071265829</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03859458198602312</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1678617948.607373</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6196885047.857066</v>
+        <v>2456280448.538106</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00463453081459581</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>11</v>
+        <v>0.1791175344038161</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03197673302481709</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1228140336.545454</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6920026171.936154</v>
+        <v>1579919655.149772</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003854084401672736</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>10</v>
+        <v>0.1251423536027578</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02858793049820562</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>789959830.9816575</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6987500441.515169</v>
+        <v>4838170935.662107</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00245288609563284</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>11</v>
+        <v>0.1226758453678978</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02268418388481042</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2419085487.549449</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7713494965.316703</v>
+        <v>2058073078.657228</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005184915766336127</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1597228730061654</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0252742263337155</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1029036609.275531</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5047897961.08333</v>
+        <v>4332026012.616337</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003457387155134247</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>11</v>
+        <v>0.1285534025860195</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03688473567872994</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>19</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2166012948.113542</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5669621802.165697</v>
+        <v>1342499316.781971</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001703682445874452</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>11</v>
+        <v>0.1577757033180879</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03204213632161688</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>671249664.9213763</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5205710630.632717</v>
+        <v>4301442875.022361</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002621043462125428</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>17</v>
+        <v>0.07252298575057813</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02978859727885127</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2150721451.851337</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6833264869.71686</v>
+        <v>3601701389.386297</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003227903079384916</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>10</v>
+        <v>0.1107567720452296</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0215099282798171</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1800850642.957372</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8723159168.92597</v>
+        <v>3592441286.52624</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005113797056457337</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9</v>
+        <v>0.1733793745217547</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02225418218241601</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1796220705.59486</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9737192737.495401</v>
+        <v>2009429077.3997</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003510058632888121</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1335471952811519</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03242975397946507</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1004714525.059401</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7077768553.103775</v>
+        <v>2365722712.920928</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00437311094876878</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>15</v>
+        <v>0.0992757284038181</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04299621133998529</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1182861307.777038</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5523017858.67912</v>
+        <v>2324001562.935647</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003539351946694882</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1460496014528663</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03699929825062483</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>20</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1162000766.861923</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8662073073.94606</v>
+        <v>2014655324.563914</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002513250968496848</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1208782580446862</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02612793944598234</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1007327691.823631</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4052291444.686841</v>
+        <v>1404728228.655228</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001366943878109134</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1308121221640956</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02718564081007909</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>702364222.2663196</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8875098350.36544</v>
+        <v>3186936015.960177</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004804537563142659</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>13</v>
+        <v>0.1332896916643709</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03588770372626327</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>21</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1593468056.752713</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>8221064434.287456</v>
+        <v>2766820542.668335</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004339715405464368</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>12</v>
+        <v>0.1252712590413292</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.04177843321840326</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1383410326.415301</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7564488258.136774</v>
+        <v>1811477793.9934</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002532152334765219</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>10</v>
+        <v>0.09811057727005246</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03916492545285097</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>905738932.5978116</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6275231062.417871</v>
+        <v>1547031638.407107</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003670966753595274</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>16</v>
+        <v>0.166893054205019</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05120892184023627</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>773515851.7173672</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3630057314.523486</v>
+        <v>1939922404.517272</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003264266021508345</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08461406285982905</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03293800856579802</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>969961143.7739866</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7446239051.477616</v>
+        <v>3927548917.394723</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001350589810957936</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>19</v>
+        <v>0.09332433753210802</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04558053318554724</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1963774463.853392</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>4707866175.076764</v>
+        <v>1965297433.32864</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001336256935976428</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>16</v>
+        <v>0.1544842401588684</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03219855335584201</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>982648710.3843069</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5170572926.365172</v>
+        <v>2652694934.484189</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002309924707082288</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>14</v>
+        <v>0.08807974629254986</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04898667051360674</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>13</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1326347492.093374</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9676599885.141243</v>
+        <v>1507529777.65904</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003335011767295476</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>15</v>
+        <v>0.1359394326431465</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03727460990463331</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>753764928.2516861</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6122651398.331761</v>
+        <v>4076174037.175981</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005761686129363027</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>14</v>
+        <v>0.1658147239836529</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02161514716248984</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2038087080.974949</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6801083984.232659</v>
+        <v>3239918792.467768</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004822006387496368</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>21</v>
+        <v>0.08292836528500616</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02887710684673796</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1619959397.071684</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2975340084.317809</v>
+        <v>3431475156.618483</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00564056974946015</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1200027658865729</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02759798531594259</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>17</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1715737595.480113</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4697888883.314041</v>
+        <v>3895687293.485298</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003472945225937122</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1145185940265897</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02235066708103231</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>16</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1947843708.939829</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5769087791.705293</v>
+        <v>2304499187.619052</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001117564168529398</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>18</v>
+        <v>0.1452978157803707</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04774505371897611</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>23</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1152249590.809867</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_54.xlsx
+++ b/output/fit_clients/fit_round_54.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2233835699.954333</v>
+        <v>2310097284.74797</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08838277211057996</v>
+        <v>0.1047810851564707</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03394900884748243</v>
+        <v>0.02797729068226478</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1116917876.930369</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2029861988.62651</v>
+        <v>2172875559.939469</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1157505327995307</v>
+        <v>0.1131755893334732</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04816553978443436</v>
+        <v>0.03184921415824804</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1014931038.873128</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4214369991.460396</v>
+        <v>3663975138.184651</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1515661048191335</v>
+        <v>0.132664320083464</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02966298900486777</v>
+        <v>0.02871635141030634</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2107185024.972372</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3937482427.092417</v>
+        <v>3069007286.881849</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09146280173351083</v>
+        <v>0.09023384953901822</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03931865403491489</v>
+        <v>0.03198432157128318</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1968741221.298859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2032778613.47581</v>
+        <v>1840715487.458896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1124201285327981</v>
+        <v>0.1424212116785403</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04835438789790415</v>
+        <v>0.0421207855309766</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1016389332.663972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2054123736.820219</v>
+        <v>3040966468.099135</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0637480938259017</v>
+        <v>0.0756915828030784</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04598530485355101</v>
+        <v>0.04487853508179564</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1027061924.21962</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3285246777.880075</v>
+        <v>2850391727.3723</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1805385861403478</v>
+        <v>0.1638520980867226</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0329936288687062</v>
+        <v>0.0226879960923045</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>17</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1642623475.469032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2103184187.096092</v>
+        <v>2092913745.926393</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1587829020568734</v>
+        <v>0.1991903857434624</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02961092795982585</v>
+        <v>0.02643308044052336</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1051592105.716514</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5141385883.623359</v>
+        <v>4409735631.103313</v>
       </c>
       <c r="F10" t="n">
-        <v>0.164495461621166</v>
+        <v>0.1790337366204426</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05357838521240912</v>
+        <v>0.04756429961578049</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>23</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2570693051.936514</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4290156417.589612</v>
+        <v>3061352031.931939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1463337694908753</v>
+        <v>0.1337401468497556</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04501864392507623</v>
+        <v>0.03475385031902037</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>23</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2145078241.592455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3202866603.127088</v>
+        <v>2862310417.943361</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1421777628259376</v>
+        <v>0.1861111024527025</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04245975385618848</v>
+        <v>0.03541862237580217</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1601433338.018167</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5061329860.729486</v>
+        <v>4076088668.527006</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06850847552710283</v>
+        <v>0.08033180281313826</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02729584854083755</v>
+        <v>0.01927251943827545</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2530664931.244104</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2992906379.868357</v>
+        <v>3238768789.252701</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1351270812230181</v>
+        <v>0.1281498004155013</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03182533472179738</v>
+        <v>0.04255350500468639</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1496453224.76968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1422206566.512743</v>
+        <v>1130109505.924639</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08267006253775015</v>
+        <v>0.09706035262294459</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03892960870478291</v>
+        <v>0.048402527336347</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>711103350.9898901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2814198109.480933</v>
+        <v>2170883524.141191</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07803485601052798</v>
+        <v>0.07467499727654359</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03743767539784382</v>
+        <v>0.05008773858758307</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1407099057.358682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3317688341.006318</v>
+        <v>4620875215.982378</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1605423336207989</v>
+        <v>0.1192182157894791</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05263933487323338</v>
+        <v>0.03913081623971438</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1658844238.693051</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2468535186.346207</v>
+        <v>2757383401.233861</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1483454262375404</v>
+        <v>0.1827918656836172</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03032868057191007</v>
+        <v>0.03002846421032079</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>18</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1234267661.804544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1331475213.560786</v>
+        <v>1266466070.988328</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1420569810350123</v>
+        <v>0.1614089389259984</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01978720516681234</v>
+        <v>0.02711534891935577</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>665737716.5713689</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2557786528.788281</v>
+        <v>1874750296.570244</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1084498720520713</v>
+        <v>0.1156064179430146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01999312052570127</v>
+        <v>0.02635601499885065</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1278893231.179676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1803479122.481217</v>
+        <v>2219130790.473389</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08620605652224916</v>
+        <v>0.08239637013044129</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04433525505749886</v>
+        <v>0.04402314286074749</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>901739615.7780235</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3421088233.391462</v>
+        <v>3206410179.576596</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1012500724545814</v>
+        <v>0.1296370392605056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05364139684060115</v>
+        <v>0.04158730020388282</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1710544152.884572</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1552137555.068671</v>
+        <v>1288476668.500305</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1496842888394741</v>
+        <v>0.175846713655073</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03596744140473063</v>
+        <v>0.04859724983621162</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>776068754.5553821</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2688976217.438829</v>
+        <v>4039099082.392769</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1352322051043588</v>
+        <v>0.1273814464365048</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03413525328698278</v>
+        <v>0.03321264097490572</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1344488164.775072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1030641411.550559</v>
+        <v>1295860335.754621</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08905603339032413</v>
+        <v>0.1210890570612608</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03025333415091577</v>
+        <v>0.02722697057493362</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>515320762.5792654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1206437227.093515</v>
+        <v>1301435392.273958</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1044834480290735</v>
+        <v>0.09984302774220426</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02751338204843482</v>
+        <v>0.03027328043525881</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>603218636.0086371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4712322094.70956</v>
+        <v>4162720745.936193</v>
       </c>
       <c r="F27" t="n">
-        <v>0.125397717196425</v>
+        <v>0.1178851191875869</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0238985837798057</v>
+        <v>0.01873673475884525</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2356161021.993269</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3557124183.176344</v>
+        <v>2774390873.877958</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1058750139623674</v>
+        <v>0.1092848224121892</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04235027495212379</v>
+        <v>0.04547601602999655</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1778562151.049778</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3761346909.368319</v>
+        <v>3855690999.011693</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09345585555927767</v>
+        <v>0.1236120103880327</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04248891365958287</v>
+        <v>0.03360895899944495</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>24</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1880673488.046546</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1475359924.182562</v>
+        <v>2095844661.928453</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1218706865468037</v>
+        <v>0.1176179366131351</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02788494217237701</v>
+        <v>0.03614993831659712</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>737679939.6593729</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1242558875.902679</v>
+        <v>989508641.5695341</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09793151328156924</v>
+        <v>0.06832791110459999</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04386678280384292</v>
+        <v>0.03474717671110352</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>621279379.2716695</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1660871985.118268</v>
+        <v>1490826288.313688</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08739194769792462</v>
+        <v>0.08166770286270253</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03740748757206508</v>
+        <v>0.03275101060633826</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>830436094.0970922</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2407778055.797315</v>
+        <v>3112195983.638147</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2092033203981794</v>
+        <v>0.1377725504331026</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05549785871526806</v>
+        <v>0.05361206542005348</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1203889073.833513</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1129478293.324773</v>
+        <v>1399396516.00772</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07414995145152606</v>
+        <v>0.07436747267622904</v>
       </c>
       <c r="G34" t="n">
-        <v>0.019792086740418</v>
+        <v>0.0231855444941599</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>564739163.2082651</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1033285147.798643</v>
+        <v>906112927.3760473</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1064988471700945</v>
+        <v>0.117301686952639</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04169060762063978</v>
+        <v>0.04027100927293277</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>516642585.0567889</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2768260222.128878</v>
+        <v>3186094170.761917</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1792495887883938</v>
+        <v>0.1197888290937188</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02606359013781959</v>
+        <v>0.02658187091857876</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1384130111.429808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2443723549.556377</v>
+        <v>2881151723.880805</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09768556843088377</v>
+        <v>0.08567154922689513</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03162609573074864</v>
+        <v>0.03172217046760834</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1221861862.972154</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1586679676.895111</v>
+        <v>1841502143.714518</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08690706615735767</v>
+        <v>0.1166198730098773</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03790654071041824</v>
+        <v>0.02430916561164135</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>793339875.3208026</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2083330717.805756</v>
+        <v>2148980382.54646</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1838518694408494</v>
+        <v>0.140639711859328</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03073553112411707</v>
+        <v>0.02102405632271768</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1041665340.661056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1806505009.899914</v>
+        <v>1164011196.98168</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1419055688986227</v>
+        <v>0.1446019371886814</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05817659376223093</v>
+        <v>0.04882456404639397</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>903252394.290186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2504452922.697559</v>
+        <v>2025062246.56661</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1212372525671147</v>
+        <v>0.1011046979647657</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03752224365529911</v>
+        <v>0.04231500459374746</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1252226486.044817</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3250906041.598454</v>
+        <v>4274872686.20136</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0895523656988102</v>
+        <v>0.07761798714545393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03694651089617743</v>
+        <v>0.04121574801787286</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1625452998.388691</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2840494618.508021</v>
+        <v>3065123917.514149</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1943808808974127</v>
+        <v>0.1601068637231976</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01835810700903667</v>
+        <v>0.02178946752586503</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>18</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1420247323.569781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2245392888.397043</v>
+        <v>1458134229.685811</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07046011841491048</v>
+        <v>0.08801310014791279</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02363369738037325</v>
+        <v>0.02374811147429563</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1122696599.362432</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1945819270.953928</v>
+        <v>2033528674.615151</v>
       </c>
       <c r="F45" t="n">
-        <v>0.119824076150045</v>
+        <v>0.1920853773802671</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03975672246812793</v>
+        <v>0.05273992586572276</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>972909620.7512673</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4972820703.496703</v>
+        <v>3856480545.282665</v>
       </c>
       <c r="F46" t="n">
-        <v>0.165912442686961</v>
+        <v>0.1517158544373139</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04191598078773091</v>
+        <v>0.03975085829349152</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>19</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2486410376.868121</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3226554874.954949</v>
+        <v>5043381870.998319</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1642573980190198</v>
+        <v>0.1572604616145016</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04776913859091083</v>
+        <v>0.04240750643046413</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1613277392.637749</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4212693283.332076</v>
+        <v>4579542566.537581</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1086511018038743</v>
+        <v>0.104214372831129</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02759223485382654</v>
+        <v>0.02789672301813397</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>18</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2106346663.55999</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1702246510.458578</v>
+        <v>1265231554.637755</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1224404871755596</v>
+        <v>0.1654871488792901</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03723974419797123</v>
+        <v>0.03266293830439</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>851123255.6823075</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3388791796.068957</v>
+        <v>2637674998.568192</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1256048437604892</v>
+        <v>0.1290862853390561</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03254703429558525</v>
+        <v>0.04662625987336603</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>18</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1694395930.078026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1343527716.673108</v>
+        <v>1159556677.539634</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1359647112704123</v>
+        <v>0.1213757556906871</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04776546943480638</v>
+        <v>0.03599329091988386</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>671763886.5201657</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3501232793.410499</v>
+        <v>3300328957.611535</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09037803562229063</v>
+        <v>0.1006954216218783</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05013196506913163</v>
+        <v>0.05429024010620608</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>22</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1750616482.420296</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2314044936.452267</v>
+        <v>3680774101.962963</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1525926882122734</v>
+        <v>0.1719323175389124</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03548934040569141</v>
+        <v>0.0307945026867061</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>15</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1157022547.890089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3844662738.715531</v>
+        <v>3713522994.354716</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1082840649930468</v>
+        <v>0.1450306337625934</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0421260022322853</v>
+        <v>0.04368397279864306</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>17</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1922331421.094608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3923428628.653885</v>
+        <v>4219739817.113644</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1516368449378536</v>
+        <v>0.1722115899385018</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03094425970441845</v>
+        <v>0.03001411997093626</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1961714285.758133</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1335285991.015064</v>
+        <v>1650375508.131636</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1285586595484094</v>
+        <v>0.1397014504192075</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04819641361059476</v>
+        <v>0.051344963286155</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>667643061.9934932</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3115942950.425848</v>
+        <v>4463320305.997705</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1218050893293637</v>
+        <v>0.1272038760369029</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01662871411570351</v>
+        <v>0.02016909542289747</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>17</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1557971489.223059</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1635153904.199802</v>
+        <v>1806668055.640292</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1792947076128673</v>
+        <v>0.1568809972986204</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03128638958685349</v>
+        <v>0.02815373687643454</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>817576970.7741793</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4900007160.463919</v>
+        <v>4460503742.102818</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1047738518864835</v>
+        <v>0.08410562165045028</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03259806189143755</v>
+        <v>0.03734000624701503</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>14</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2450003512.660372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2943139251.911688</v>
+        <v>3751495189.447586</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1857680039854163</v>
+        <v>0.1748122930406533</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02190184155745369</v>
+        <v>0.02371308851252299</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>17</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1471569690.208508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2659594373.956369</v>
+        <v>2850810295.915065</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1270670911616312</v>
+        <v>0.1795132505238705</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03027587527673074</v>
+        <v>0.02058459148936644</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>18</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1329797199.422149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1456138624.319326</v>
+        <v>1407191303.7081</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1293568744317649</v>
+        <v>0.184523508400689</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03649160666014142</v>
+        <v>0.03389099600781464</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>728069288.5332277</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4927721980.194125</v>
+        <v>3996817242.261998</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06719783763203142</v>
+        <v>0.07025736997159326</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0412962537251939</v>
+        <v>0.04234678309298234</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2463861010.953323</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3738789354.345782</v>
+        <v>3359253539.664202</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1210593621455127</v>
+        <v>0.1238076476690581</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02410294770679969</v>
+        <v>0.03398001680258746</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>17</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1869394694.535522</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4272744227.553362</v>
+        <v>5336652842.995118</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1251085989873949</v>
+        <v>0.131740526922047</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02589026300576491</v>
+        <v>0.02679654141656393</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>19</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2136372115.943017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4347781657.891744</v>
+        <v>5154508720.012396</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1499527400142508</v>
+        <v>0.1386441064115337</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03191525723301961</v>
+        <v>0.04458749490198208</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2173890821.024632</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2116090580.83194</v>
+        <v>2431423005.112857</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07989248171762672</v>
+        <v>0.07517903684022166</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04245290869601672</v>
+        <v>0.03416023864920575</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>17</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1058045383.388059</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4188206358.109052</v>
+        <v>3968707128.455308</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1487251212543387</v>
+        <v>0.103574377207084</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03869559317520545</v>
+        <v>0.03415385820272622</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2094103186.131531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2027315187.649388</v>
+        <v>1826928201.614534</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1302388382661798</v>
+        <v>0.1821287909487529</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05608365375519527</v>
+        <v>0.05388386756812901</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1013657602.200427</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2315897972.62284</v>
+        <v>3075410257.701078</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09400134274402995</v>
+        <v>0.07551924978997064</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04133752007161712</v>
+        <v>0.03051377791114059</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1157948918.651364</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3857852424.143915</v>
+        <v>3731349502.081817</v>
       </c>
       <c r="F71" t="n">
-        <v>0.138237950748298</v>
+        <v>0.1357882912490123</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02306330091498583</v>
+        <v>0.02497224171632655</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>20</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1928926232.39922</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1827815553.82394</v>
+        <v>2197721380.194037</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1068728970853024</v>
+        <v>0.09262105572535444</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03666742068689075</v>
+        <v>0.04540811762845263</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>913907750.8992063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3357235970.870139</v>
+        <v>2614364632.481371</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08351653071265829</v>
+        <v>0.07108093719822119</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03859458198602312</v>
+        <v>0.03434959760013975</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>21</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1678617948.607373</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2456280448.538106</v>
+        <v>2559148192.254896</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1791175344038161</v>
+        <v>0.1386853915339122</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03197673302481709</v>
+        <v>0.02511865616810464</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1228140336.545454</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1579919655.149772</v>
+        <v>2203895394.654881</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1251423536027578</v>
+        <v>0.1339065416726792</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02858793049820562</v>
+        <v>0.03676490819191122</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>789959830.9816575</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4838170935.662107</v>
+        <v>3380522420.59397</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1226758453678978</v>
+        <v>0.1109694777100608</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02268418388481042</v>
+        <v>0.02428806348537548</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>12</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2419085487.549449</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2058073078.657228</v>
+        <v>2162142851.785147</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1597228730061654</v>
+        <v>0.1671770654319442</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0252742263337155</v>
+        <v>0.02192280927049521</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1029036609.275531</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4332026012.616337</v>
+        <v>4041253772.993934</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1285534025860195</v>
+        <v>0.1371905379997733</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03688473567872994</v>
+        <v>0.04487524686672226</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>19</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2166012948.113542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1342499316.781971</v>
+        <v>1468045099.225228</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1577757033180879</v>
+        <v>0.1587346685110566</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03204213632161688</v>
+        <v>0.02688902550196556</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>671249664.9213763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4301442875.022361</v>
+        <v>5232358665.826178</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07252298575057813</v>
+        <v>0.07029860077920656</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02978859727885127</v>
+        <v>0.03705642458900119</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>11</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2150721451.851337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3601701389.386297</v>
+        <v>5061771992.197177</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1107567720452296</v>
+        <v>0.09421640043318905</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0215099282798171</v>
+        <v>0.02535259745663205</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>12</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1800850642.957372</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3592441286.52624</v>
+        <v>3631001919.385095</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1733793745217547</v>
+        <v>0.161031451751421</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02225418218241601</v>
+        <v>0.02229029148709141</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1796220705.59486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2009429077.3997</v>
+        <v>1717263156.167178</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1335471952811519</v>
+        <v>0.1409569949840778</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03242975397946507</v>
+        <v>0.03699131817766589</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1004714525.059401</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2365722712.920928</v>
+        <v>1804339147.521254</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0992757284038181</v>
+        <v>0.09419242033168125</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04299621133998529</v>
+        <v>0.04837499441035689</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1182861307.777038</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2324001562.935647</v>
+        <v>3073408224.544986</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1460496014528663</v>
+        <v>0.1311904535048594</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03699929825062483</v>
+        <v>0.04413605863906896</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>20</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1162000766.861923</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2014655324.563914</v>
+        <v>2260642166.616852</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1208782580446862</v>
+        <v>0.1127738694278372</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02612793944598234</v>
+        <v>0.01839435263369217</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1007327691.823631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1404728228.655228</v>
+        <v>1476552826.190305</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1308121221640956</v>
+        <v>0.1220692517534298</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02718564081007909</v>
+        <v>0.04113539731713821</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>702364222.2663196</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3186936015.960177</v>
+        <v>2398287413.960238</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1332896916643709</v>
+        <v>0.1497133628713078</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03588770372626327</v>
+        <v>0.027249494211118</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>21</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1593468056.752713</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2766820542.668335</v>
+        <v>2918124548.866776</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1252712590413292</v>
+        <v>0.1332055295646522</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04177843321840326</v>
+        <v>0.03983442948903449</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>18</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1383410326.415301</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1811477793.9934</v>
+        <v>1499085440.548424</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09811057727005246</v>
+        <v>0.1168384123672892</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03916492545285097</v>
+        <v>0.04419285133678132</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>905738932.5978116</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1547031638.407107</v>
+        <v>1963002334.59264</v>
       </c>
       <c r="F91" t="n">
-        <v>0.166893054205019</v>
+        <v>0.1653055365961957</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05120892184023627</v>
+        <v>0.05815635924159746</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>773515851.7173672</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1939922404.517272</v>
+        <v>2755151470.924552</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08461406285982905</v>
+        <v>0.09005661508587601</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03293800856579802</v>
+        <v>0.02885446147850515</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>969961143.7739866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3927548917.394723</v>
+        <v>4106037387.99648</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09332433753210802</v>
+        <v>0.09807691982810549</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04558053318554724</v>
+        <v>0.03535234111656528</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1963774463.853392</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1965297433.32864</v>
+        <v>1756208461.908513</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1544842401588684</v>
+        <v>0.1176982102817722</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03219855335584201</v>
+        <v>0.04040913834096749</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>982648710.3843069</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2652694934.484189</v>
+        <v>2062904385.870429</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08807974629254986</v>
+        <v>0.08961609036238334</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04898667051360674</v>
+        <v>0.04819320825142066</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>13</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1326347492.093374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1507529777.65904</v>
+        <v>1624748877.71709</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1359394326431465</v>
+        <v>0.1294938011250723</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03727460990463331</v>
+        <v>0.03804191894384677</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>753764928.2516861</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4076174037.175981</v>
+        <v>4511028372.815263</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1658147239836529</v>
+        <v>0.1148039400106342</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02161514716248984</v>
+        <v>0.02364290942499615</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>17</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2038087080.974949</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3239918792.467768</v>
+        <v>3720827511.445535</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08292836528500616</v>
+        <v>0.1183011519454595</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02887710684673796</v>
+        <v>0.02178928011246105</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1619959397.071684</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3431475156.618483</v>
+        <v>3196440078.458595</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1200027658865729</v>
+        <v>0.1284714204848885</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02759798531594259</v>
+        <v>0.03276625708533056</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>17</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1715737595.480113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3895687293.485298</v>
+        <v>2921780698.190745</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1145185940265897</v>
+        <v>0.1452276440208854</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02235066708103231</v>
+        <v>0.01751634739824038</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1947843708.939829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2304499187.619052</v>
+        <v>2920970386.183629</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1452978157803707</v>
+        <v>0.2154395759593741</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04774505371897611</v>
+        <v>0.04872568963062519</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>23</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1152249590.809867</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_54.xlsx
+++ b/output/fit_clients/fit_round_54.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2310097284.74797</v>
+        <v>1773864105.276733</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1047810851564707</v>
+        <v>0.07933152496808686</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02797729068226478</v>
+        <v>0.04171761372789106</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2172875559.939469</v>
+        <v>1634008735.966912</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1131755893334732</v>
+        <v>0.1663338866116371</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03184921415824804</v>
+        <v>0.03940956678763777</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3663975138.184651</v>
+        <v>3565951566.73875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.132664320083464</v>
+        <v>0.1642694139107314</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02871635141030634</v>
+        <v>0.02437306435117158</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3069007286.881849</v>
+        <v>2571394734.743253</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09023384953901822</v>
+        <v>0.08291953844369571</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03198432157128318</v>
+        <v>0.04643233888643042</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1840715487.458896</v>
+        <v>2326974531.127542</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1424212116785403</v>
+        <v>0.09091043994422104</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0421207855309766</v>
+        <v>0.04342858444691364</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3040966468.099135</v>
+        <v>2360911574.208441</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0756915828030784</v>
+        <v>0.07440745560281746</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04487853508179564</v>
+        <v>0.04658639699110045</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2850391727.3723</v>
+        <v>2984486957.035105</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1638520980867226</v>
+        <v>0.2078710720565465</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0226879960923045</v>
+        <v>0.02397645602513217</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2092913745.926393</v>
+        <v>2200908099.621352</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1991903857434624</v>
+        <v>0.185306916906844</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02643308044052336</v>
+        <v>0.03571944664536427</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4409735631.103313</v>
+        <v>4494082461.276562</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1790337366204426</v>
+        <v>0.1361687519453854</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04756429961578049</v>
+        <v>0.05206926185366485</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3061352031.931939</v>
+        <v>4184947885.58785</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1337401468497556</v>
+        <v>0.1851737268927746</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03475385031902037</v>
+        <v>0.03609382660358544</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2862310417.943361</v>
+        <v>2686760175.714581</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1861111024527025</v>
+        <v>0.1813339636785711</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03541862237580217</v>
+        <v>0.04798360601350635</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4076088668.527006</v>
+        <v>3709216160.827393</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08033180281313826</v>
+        <v>0.07438893262417053</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01927251943827545</v>
+        <v>0.03046670963160519</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3238768789.252701</v>
+        <v>2688563876.202458</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1281498004155013</v>
+        <v>0.1307711697512348</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04255350500468639</v>
+        <v>0.03501877476220423</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1130109505.924639</v>
+        <v>1693205707.569898</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09706035262294459</v>
+        <v>0.1052975881879454</v>
       </c>
       <c r="G15" t="n">
-        <v>0.048402527336347</v>
+        <v>0.03811685576416882</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2170883524.141191</v>
+        <v>2152492834.654738</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07467499727654359</v>
+        <v>0.1064144981121894</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05008773858758307</v>
+        <v>0.03672351025239663</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4620875215.982378</v>
+        <v>5321698523.700669</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1192182157894791</v>
+        <v>0.1609433163891713</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03913081623971438</v>
+        <v>0.04144509361141423</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2757383401.233861</v>
+        <v>3240514630.653151</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1827918656836172</v>
+        <v>0.1838619653939547</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03002846421032079</v>
+        <v>0.03131209667426152</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1266466070.988328</v>
+        <v>1314607605.70745</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1614089389259984</v>
+        <v>0.1678159454465137</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02711534891935577</v>
+        <v>0.02406986791172419</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1874750296.570244</v>
+        <v>2611273163.382065</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1156064179430146</v>
+        <v>0.1021090832998671</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02635601499885065</v>
+        <v>0.03161949277772681</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2219130790.473389</v>
+        <v>1815617655.144345</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08239637013044129</v>
+        <v>0.08642297167784772</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04402314286074749</v>
+        <v>0.03740675021817725</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3206410179.576596</v>
+        <v>3513585349.735188</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1296370392605056</v>
+        <v>0.1382120601281906</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04158730020388282</v>
+        <v>0.04284012074295031</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1288476668.500305</v>
+        <v>1179807792.624137</v>
       </c>
       <c r="F23" t="n">
-        <v>0.175846713655073</v>
+        <v>0.1589812356727789</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04859724983621162</v>
+        <v>0.04499094065293611</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4039099082.392769</v>
+        <v>3172962088.777345</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1273814464365048</v>
+        <v>0.1172855275828572</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03321264097490572</v>
+        <v>0.02932694401830563</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1295860335.754621</v>
+        <v>1252434239.641048</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1210890570612608</v>
+        <v>0.1004532816263486</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02722697057493362</v>
+        <v>0.02928832367074112</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1301435392.273958</v>
+        <v>1324180660.437405</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09984302774220426</v>
+        <v>0.1083991061352754</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03027328043525881</v>
+        <v>0.0323009894248058</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4162720745.936193</v>
+        <v>4499883917.192534</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1178851191875869</v>
+        <v>0.152633428365701</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01873673475884525</v>
+        <v>0.01990728618992179</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2774390873.877958</v>
+        <v>2343216578.019352</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1092848224121892</v>
+        <v>0.1027027179145968</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04547601602999655</v>
+        <v>0.04785805583989158</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3855690999.011693</v>
+        <v>3767861265.062813</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1236120103880327</v>
+        <v>0.09935795238439347</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03360895899944495</v>
+        <v>0.04054758971862316</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2095844661.928453</v>
+        <v>2406773563.185619</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1176179366131351</v>
+        <v>0.1103872017991601</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03614993831659712</v>
+        <v>0.02461809466887117</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>989508641.5695341</v>
+        <v>1458048408.887867</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06832791110459999</v>
+        <v>0.09821951887159527</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03474717671110352</v>
+        <v>0.03961898859049307</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1490826288.313688</v>
+        <v>1254205006.210109</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08166770286270253</v>
+        <v>0.08093056651098825</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03275101060633826</v>
+        <v>0.03823507059005483</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3112195983.638147</v>
+        <v>2908721494.059354</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1377725504331026</v>
+        <v>0.1755341702530427</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05361206542005348</v>
+        <v>0.04479111273158461</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1399396516.00772</v>
+        <v>1223199117.212194</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07436747267622904</v>
+        <v>0.1082662742383701</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0231855444941599</v>
+        <v>0.02600481587170403</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>906112927.3760473</v>
+        <v>1042660513.356934</v>
       </c>
       <c r="F35" t="n">
-        <v>0.117301686952639</v>
+        <v>0.1043216863428149</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04027100927293277</v>
+        <v>0.03144575891147614</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3186094170.761917</v>
+        <v>2939971757.846494</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1197888290937188</v>
+        <v>0.133680350614998</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02658187091857876</v>
+        <v>0.02371563472702901</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2881151723.880805</v>
+        <v>2836628785.612282</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08567154922689513</v>
+        <v>0.08950232606996417</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03172217046760834</v>
+        <v>0.0323959462981253</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1841502143.714518</v>
+        <v>2182284343.893489</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1166198730098773</v>
+        <v>0.09286046308619066</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02430916561164135</v>
+        <v>0.03367422014563658</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2148980382.54646</v>
+        <v>1739363490.137583</v>
       </c>
       <c r="F39" t="n">
-        <v>0.140639711859328</v>
+        <v>0.1381464354258564</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02102405632271768</v>
+        <v>0.03221393013978986</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1164011196.98168</v>
+        <v>1211737391.543092</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1446019371886814</v>
+        <v>0.11717168561006</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04882456404639397</v>
+        <v>0.05449062079927931</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2025062246.56661</v>
+        <v>2481672724.494785</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1011046979647657</v>
+        <v>0.1102419210484109</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04231500459374746</v>
+        <v>0.04178962903649144</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4274872686.20136</v>
+        <v>2932922168.985983</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07761798714545393</v>
+        <v>0.1180261934512963</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04121574801787286</v>
+        <v>0.03032224866176126</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3065123917.514149</v>
+        <v>2458057397.604285</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1601068637231976</v>
+        <v>0.1760635848268762</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02178946752586503</v>
+        <v>0.02069396159265796</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1458134229.685811</v>
+        <v>2112789071.364683</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08801310014791279</v>
+        <v>0.07944071852853035</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02374811147429563</v>
+        <v>0.02375346684875719</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2033528674.615151</v>
+        <v>1966105343.509711</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1920853773802671</v>
+        <v>0.133574210510738</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05273992586572276</v>
+        <v>0.04766650501644173</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3856480545.282665</v>
+        <v>4003580533.426849</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1517158544373139</v>
+        <v>0.1367926978797509</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03975085829349152</v>
+        <v>0.04656614391593052</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5043381870.998319</v>
+        <v>3585324404.937473</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1572604616145016</v>
+        <v>0.1714149282893909</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04240750643046413</v>
+        <v>0.05826858783785683</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4579542566.537581</v>
+        <v>3233176361.125418</v>
       </c>
       <c r="F48" t="n">
-        <v>0.104214372831129</v>
+        <v>0.09709816788177221</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02789672301813397</v>
+        <v>0.02818574403596436</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1265231554.637755</v>
+        <v>1857031866.965162</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1654871488792901</v>
+        <v>0.1783811884116903</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03266293830439</v>
+        <v>0.0322697324150045</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2637674998.568192</v>
+        <v>2774343609.055915</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1290862853390561</v>
+        <v>0.1371250216373165</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04662625987336603</v>
+        <v>0.04600214628906731</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1159556677.539634</v>
+        <v>1050839666.771187</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1213757556906871</v>
+        <v>0.1244692780328382</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03599329091988386</v>
+        <v>0.05234059578047667</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3300328957.611535</v>
+        <v>5129073420.395798</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1006954216218783</v>
+        <v>0.09580783489564665</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05429024010620608</v>
+        <v>0.04351528181713844</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3680774101.962963</v>
+        <v>2868265349.825089</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1719323175389124</v>
+        <v>0.1621585824518832</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0307945026867061</v>
+        <v>0.02911680158200214</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3713522994.354716</v>
+        <v>3477872877.929392</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1450306337625934</v>
+        <v>0.1154574266160261</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04368397279864306</v>
+        <v>0.04425607478384772</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4219739817.113644</v>
+        <v>4508392413.966844</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1722115899385018</v>
+        <v>0.2246245932119099</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03001411997093626</v>
+        <v>0.02979387811706541</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1650375508.131636</v>
+        <v>1366720163.368656</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1397014504192075</v>
+        <v>0.1378169000068667</v>
       </c>
       <c r="G56" t="n">
-        <v>0.051344963286155</v>
+        <v>0.03620622576184341</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4463320305.997705</v>
+        <v>3276597529.957957</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1272038760369029</v>
+        <v>0.1442379845312043</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02016909542289747</v>
+        <v>0.01944106424046473</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1806668055.640292</v>
+        <v>1156214359.474251</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1568809972986204</v>
+        <v>0.1514886882390587</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02815373687643454</v>
+        <v>0.03120727684467174</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4460503742.102818</v>
+        <v>4625579658.787247</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08410562165045028</v>
+        <v>0.09788788302107967</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03734000624701503</v>
+        <v>0.03746901648616367</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3751495189.447586</v>
+        <v>3580009240.834071</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1748122930406533</v>
+        <v>0.199813333323513</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02371308851252299</v>
+        <v>0.02013772492255834</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2850810295.915065</v>
+        <v>2699023900.430017</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1795132505238705</v>
+        <v>0.1489286460668859</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02058459148936644</v>
+        <v>0.0305937341439998</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1407191303.7081</v>
+        <v>1408092309.825061</v>
       </c>
       <c r="F62" t="n">
-        <v>0.184523508400689</v>
+        <v>0.1681357848809941</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03389099600781464</v>
+        <v>0.03840602796069534</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3996817242.261998</v>
+        <v>5233742426.711188</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07025736997159326</v>
+        <v>0.09247194589275586</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04234678309298234</v>
+        <v>0.03449882707959463</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3359253539.664202</v>
+        <v>4664101722.001076</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1238076476690581</v>
+        <v>0.1737555102267707</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03398001680258746</v>
+        <v>0.02469667953384242</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5336652842.995118</v>
+        <v>5812638227.384572</v>
       </c>
       <c r="F65" t="n">
-        <v>0.131740526922047</v>
+        <v>0.1227457085680952</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02679654141656393</v>
+        <v>0.02899712463248404</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5154508720.012396</v>
+        <v>4739441153.88456</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1386441064115337</v>
+        <v>0.1189168419233034</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04458749490198208</v>
+        <v>0.03371954571678097</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2431423005.112857</v>
+        <v>3495549661.288463</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07517903684022166</v>
+        <v>0.07668491180206882</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03416023864920575</v>
+        <v>0.04385469465259632</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3968707128.455308</v>
+        <v>5568211701.784404</v>
       </c>
       <c r="F68" t="n">
-        <v>0.103574377207084</v>
+        <v>0.1122706052560521</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03415385820272622</v>
+        <v>0.04886526305178304</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1826928201.614534</v>
+        <v>2056652830.725317</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1821287909487529</v>
+        <v>0.1802314615084387</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05388386756812901</v>
+        <v>0.04935362101689376</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3075410257.701078</v>
+        <v>3618310828.524557</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07551924978997064</v>
+        <v>0.07959795554589487</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03051377791114059</v>
+        <v>0.03042075325542392</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3731349502.081817</v>
+        <v>4938299656.613716</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1357882912490123</v>
+        <v>0.129924547465808</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02497224171632655</v>
+        <v>0.03175586771349431</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2197721380.194037</v>
+        <v>1806207895.48021</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09262105572535444</v>
+        <v>0.1067563862632385</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04540811762845263</v>
+        <v>0.04304495893901462</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2614364632.481371</v>
+        <v>2795934213.409472</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07108093719822119</v>
+        <v>0.1068384911759122</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03434959760013975</v>
+        <v>0.04094395852447159</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2559148192.254896</v>
+        <v>3993125350.238957</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1386853915339122</v>
+        <v>0.1325839710545009</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02511865616810464</v>
+        <v>0.02277825393696748</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2203895394.654881</v>
+        <v>2373997242.631623</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1339065416726792</v>
+        <v>0.1079461263160446</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03676490819191122</v>
+        <v>0.02660096563942171</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3380522420.59397</v>
+        <v>3283762063.810087</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1109694777100608</v>
+        <v>0.1121401024001403</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02428806348537548</v>
+        <v>0.021572550771312</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2162142851.785147</v>
+        <v>2114475701.915586</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1671770654319442</v>
+        <v>0.1152997250377553</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02192280927049521</v>
+        <v>0.02519041472402755</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4041253772.993934</v>
+        <v>4599589801.160537</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1371905379997733</v>
+        <v>0.08799636578484918</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04487524686672226</v>
+        <v>0.04786759823482439</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1468045099.225228</v>
+        <v>1212693820.228023</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1587346685110566</v>
+        <v>0.1071074965500247</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02688902550196556</v>
+        <v>0.03688337486299655</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5232358665.826178</v>
+        <v>5021867868.729824</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07029860077920656</v>
+        <v>0.07859486476243434</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03705642458900119</v>
+        <v>0.03301114775015164</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5061771992.197177</v>
+        <v>3249938529.164693</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09421640043318905</v>
+        <v>0.1159654819943262</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02535259745663205</v>
+        <v>0.0329836409127305</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3631001919.385095</v>
+        <v>3747458801.223745</v>
       </c>
       <c r="F82" t="n">
-        <v>0.161031451751421</v>
+        <v>0.2051416034685345</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02229029148709141</v>
+        <v>0.02079376430566895</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1717263156.167178</v>
+        <v>2231563982.96794</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1409569949840778</v>
+        <v>0.1359198342864066</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03699131817766589</v>
+        <v>0.03478803592113838</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1804339147.521254</v>
+        <v>2588118990.719564</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09419242033168125</v>
+        <v>0.1045760516142307</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04837499441035689</v>
+        <v>0.03241810512960754</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3073408224.544986</v>
+        <v>2352140039.66393</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1311904535048594</v>
+        <v>0.1846893100583062</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04413605863906896</v>
+        <v>0.03486000047706239</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2260642166.616852</v>
+        <v>2173671324.322441</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1127738694278372</v>
+        <v>0.1473318438093034</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01839435263369217</v>
+        <v>0.02409201877239868</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1476552826.190305</v>
+        <v>1092886270.065048</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1220692517534298</v>
+        <v>0.1182702019627823</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04113539731713821</v>
+        <v>0.03642288394478277</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2398287413.960238</v>
+        <v>2564342022.234903</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1497133628713078</v>
+        <v>0.1094177202521771</v>
       </c>
       <c r="G88" t="n">
-        <v>0.027249494211118</v>
+        <v>0.03993016791376922</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2918124548.866776</v>
+        <v>3345871768.442581</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1332055295646522</v>
+        <v>0.1485357765708413</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03983442948903449</v>
+        <v>0.03346585105560369</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1499085440.548424</v>
+        <v>1552477769.352995</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1168384123672892</v>
+        <v>0.09731576597035151</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04419285133678132</v>
+        <v>0.04634612441964586</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1963002334.59264</v>
+        <v>1840493963.579157</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1653055365961957</v>
+        <v>0.1547826790580619</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05815635924159746</v>
+        <v>0.04963086285365483</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2755151470.924552</v>
+        <v>2330029929.938108</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09005661508587601</v>
+        <v>0.09382114508330411</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02885446147850515</v>
+        <v>0.0403309680461497</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4106037387.99648</v>
+        <v>3480072289.031173</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09807691982810549</v>
+        <v>0.08981754421119625</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03535234111656528</v>
+        <v>0.03717163690418827</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1756208461.908513</v>
+        <v>2462341986.480759</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1176982102817722</v>
+        <v>0.146589373393873</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04040913834096749</v>
+        <v>0.03505039374838573</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2062904385.870429</v>
+        <v>2370984462.311554</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08961609036238334</v>
+        <v>0.09440261099139255</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04819320825142066</v>
+        <v>0.03542580673245388</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1624748877.71709</v>
+        <v>2239233117.84853</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1294938011250723</v>
+        <v>0.1249352796055078</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03804191894384677</v>
+        <v>0.03765248564199173</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4511028372.815263</v>
+        <v>3757267375.462586</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1148039400106342</v>
+        <v>0.1090275202147248</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02364290942499615</v>
+        <v>0.02906855153389122</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3720827511.445535</v>
+        <v>2801251425.298907</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1183011519454595</v>
+        <v>0.1123215640654156</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02178928011246105</v>
+        <v>0.0215271797039022</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3196440078.458595</v>
+        <v>2981857831.86014</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1284714204848885</v>
+        <v>0.1215492545803118</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03276625708533056</v>
+        <v>0.02373061008756166</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2921780698.190745</v>
+        <v>3828737742.811833</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1452276440208854</v>
+        <v>0.1379346221510144</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01751634739824038</v>
+        <v>0.02680487099242613</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2920970386.183629</v>
+        <v>2729513859.893235</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2154395759593741</v>
+        <v>0.1917863014528234</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04872568963062519</v>
+        <v>0.05768351287122021</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_54.xlsx
+++ b/output/fit_clients/fit_round_54.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1773864105.276733</v>
+        <v>2021756151.132705</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07933152496808686</v>
+        <v>0.09503420307304795</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04171761372789106</v>
+        <v>0.02772306606491576</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1634008735.966912</v>
+        <v>1697223660.555193</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1663338866116371</v>
+        <v>0.1691002022297912</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03940956678763777</v>
+        <v>0.04541008606782529</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3565951566.73875</v>
+        <v>4825975084.087476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1642694139107314</v>
+        <v>0.1590143016721312</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02437306435117158</v>
+        <v>0.02645358023062197</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2571394734.743253</v>
+        <v>2714225716.32582</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08291953844369571</v>
+        <v>0.09852411588742363</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04643233888643042</v>
+        <v>0.0390017835182759</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>53</v>
+      </c>
+      <c r="K5" t="n">
+        <v>93.91550733165582</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2326974531.127542</v>
+        <v>2110211542.160706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09091043994422104</v>
+        <v>0.1064813231118468</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04342858444691364</v>
+        <v>0.0426552711820056</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2360911574.208441</v>
+        <v>3134604812.426598</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07440745560281746</v>
+        <v>0.07651027165155144</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04658639699110045</v>
+        <v>0.03676269890495446</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2984486957.035105</v>
+        <v>3084832873.286148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2078710720565465</v>
+        <v>0.215328308677788</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02397645602513217</v>
+        <v>0.03145725644435976</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2200908099.621352</v>
+        <v>2011361197.075691</v>
       </c>
       <c r="F9" t="n">
-        <v>0.185306916906844</v>
+        <v>0.1517879418773871</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03571944664536427</v>
+        <v>0.03201421929255031</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4494082461.276562</v>
+        <v>4476375626.371139</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1361687519453854</v>
+        <v>0.201280108274106</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05206926185366485</v>
+        <v>0.05100312076967722</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="n">
+        <v>54</v>
+      </c>
+      <c r="K10" t="n">
+        <v>225.147434843579</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4184947885.58785</v>
+        <v>3890193029.112298</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1851737268927746</v>
+        <v>0.1877692746095672</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03609382660358544</v>
+        <v>0.03089198779307325</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>53</v>
+      </c>
+      <c r="K11" t="n">
+        <v>196.6920594183292</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2686760175.714581</v>
+        <v>3102730395.817316</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1813339636785711</v>
+        <v>0.1440105210765433</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04798360601350635</v>
+        <v>0.04112354542232244</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3709216160.827393</v>
+        <v>4367856663.198529</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07438893262417053</v>
+        <v>0.06525622468732556</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03046670963160519</v>
+        <v>0.02842666898951606</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>54</v>
+      </c>
+      <c r="K13" t="n">
+        <v>202.3989753524566</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2688563876.202458</v>
+        <v>3915430752.276134</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1307711697512348</v>
+        <v>0.1510702767069793</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03501877476220423</v>
+        <v>0.02763630642513035</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>54</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1693205707.569898</v>
+        <v>1310305955.505049</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1052975881879454</v>
+        <v>0.0672112085532231</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03811685576416882</v>
+        <v>0.03927348874237778</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2152492834.654738</v>
+        <v>2872597176.191791</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1064144981121894</v>
+        <v>0.07451149705045851</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03672351025239663</v>
+        <v>0.04085940170915263</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5321698523.700669</v>
+        <v>3961894903.877456</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1609433163891713</v>
+        <v>0.1318528780030964</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04144509361141423</v>
+        <v>0.04372264725565764</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26</v>
+      </c>
+      <c r="J17" t="n">
+        <v>53</v>
+      </c>
+      <c r="K17" t="n">
+        <v>173.6314606670013</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3240514630.653151</v>
+        <v>3524734855.139069</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1838619653939547</v>
+        <v>0.1117880257604681</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03131209667426152</v>
+        <v>0.02161069265109788</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>53</v>
+      </c>
+      <c r="K18" t="n">
+        <v>145.3446233932428</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1314607605.70745</v>
+        <v>1337579722.769458</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1678159454465137</v>
+        <v>0.190992434322906</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02406986791172419</v>
+        <v>0.02372344157379289</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2611273163.382065</v>
+        <v>2291940188.465565</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1021090832998671</v>
+        <v>0.1262898475662562</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03161949277772681</v>
+        <v>0.03018177872652126</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1815617655.144345</v>
+        <v>1719100068.006593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08642297167784772</v>
+        <v>0.08968538176185503</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03740675021817725</v>
+        <v>0.04244185914258152</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3513585349.735188</v>
+        <v>3333980941.730655</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1382120601281906</v>
+        <v>0.1287220387589542</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04284012074295031</v>
+        <v>0.04624463787295038</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1179807792.624137</v>
+        <v>1395236360.166714</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1589812356727789</v>
+        <v>0.1822423449249023</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04499094065293611</v>
+        <v>0.03949994603157458</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1283,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3172962088.777345</v>
+        <v>3039933630.083885</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1172855275828572</v>
+        <v>0.09201294337114579</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02932694401830563</v>
+        <v>0.03307946204999093</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16</v>
+      </c>
+      <c r="J24" t="n">
+        <v>53</v>
+      </c>
+      <c r="K24" t="n">
+        <v>101.8228924544629</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1252434239.641048</v>
+        <v>892464480.0448366</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1004532816263486</v>
+        <v>0.08292327648581106</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02928832367074112</v>
+        <v>0.02890037335273326</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1324180660.437405</v>
+        <v>907363792.1576526</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1083991061352754</v>
+        <v>0.07900741697042357</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0323009894248058</v>
+        <v>0.03297763959239676</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4499883917.192534</v>
+        <v>3823285001.503989</v>
       </c>
       <c r="F27" t="n">
-        <v>0.152633428365701</v>
+        <v>0.1068463165238399</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01990728618992179</v>
+        <v>0.02290693835324839</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>54</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2343216578.019352</v>
+        <v>2853305338.090284</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1027027179145968</v>
+        <v>0.1497287767899353</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04785805583989158</v>
+        <v>0.04331302677104427</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>51</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3767861265.062813</v>
+        <v>4317726066.891902</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09935795238439347</v>
+        <v>0.1080936851848433</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04054758971862316</v>
+        <v>0.03898657563718513</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>49</v>
+      </c>
+      <c r="J29" t="n">
+        <v>54</v>
+      </c>
+      <c r="K29" t="n">
+        <v>232.7560076819254</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2406773563.185619</v>
+        <v>1572575558.464097</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1103872017991601</v>
+        <v>0.1376521586987777</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02461809466887117</v>
+        <v>0.02428725727641786</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1458048408.887867</v>
+        <v>1108412759.440902</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09821951887159527</v>
+        <v>0.08004702262982684</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03961898859049307</v>
+        <v>0.05137451204743521</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1254205006.210109</v>
+        <v>1252739436.07157</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08093056651098825</v>
+        <v>0.1049109843292098</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03823507059005483</v>
+        <v>0.03429767559911474</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2908721494.059354</v>
+        <v>2242902094.776723</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1755341702530427</v>
+        <v>0.1677717524819235</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04479111273158461</v>
+        <v>0.03777804506534705</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1223199117.212194</v>
+        <v>1281571224.568537</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1082662742383701</v>
+        <v>0.1021058814891532</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02600481587170403</v>
+        <v>0.02120508509665973</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1042660513.356934</v>
+        <v>941612744.7150381</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1043216863428149</v>
+        <v>0.09305880259049053</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03144575891147614</v>
+        <v>0.04143310273087458</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2939971757.846494</v>
+        <v>2763341410.417558</v>
       </c>
       <c r="F36" t="n">
-        <v>0.133680350614998</v>
+        <v>0.1343738607755573</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02371563472702901</v>
+        <v>0.0260924777739227</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2836628785.612282</v>
+        <v>2431164454.376878</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08950232606996417</v>
+        <v>0.09117028888320021</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0323959462981253</v>
+        <v>0.02601666561362622</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2182284343.893489</v>
+        <v>1801827034.627015</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09286046308619066</v>
+        <v>0.09130597182689174</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03367422014563658</v>
+        <v>0.03833026229819138</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1739363490.137583</v>
+        <v>1857217271.158736</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1381464354258564</v>
+        <v>0.1384346327271744</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03221393013978986</v>
+        <v>0.0295956088109062</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1211737391.543092</v>
+        <v>1770195323.562309</v>
       </c>
       <c r="F40" t="n">
-        <v>0.11717168561006</v>
+        <v>0.1361929686663837</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05449062079927931</v>
+        <v>0.04748105263226048</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2481672724.494785</v>
+        <v>2502673227.487194</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1102419210484109</v>
+        <v>0.1587625924014183</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04178962903649144</v>
+        <v>0.04264266013361639</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2932922168.985983</v>
+        <v>4213232716.169281</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1180261934512963</v>
+        <v>0.09277581105656825</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03032224866176126</v>
+        <v>0.0301265412591449</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>19</v>
+      </c>
+      <c r="J42" t="n">
+        <v>54</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2458057397.604285</v>
+        <v>2413736925.052554</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1760635848268762</v>
+        <v>0.1872914182590807</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02069396159265796</v>
+        <v>0.02192232377826947</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2112789071.364683</v>
+        <v>1966100162.042383</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07944071852853035</v>
+        <v>0.09737598757217342</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02375346684875719</v>
+        <v>0.02350899319132244</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1966105343.509711</v>
+        <v>1924628798.78743</v>
       </c>
       <c r="F45" t="n">
-        <v>0.133574210510738</v>
+        <v>0.1482167902757766</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04766650501644173</v>
+        <v>0.04312346081158627</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4003580533.426849</v>
+        <v>4123122373.674595</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1367926978797509</v>
+        <v>0.1339659391368277</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04656614391593052</v>
+        <v>0.03829264925969385</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>32</v>
+      </c>
+      <c r="J46" t="n">
+        <v>54</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3585324404.937473</v>
+        <v>3431636255.010061</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1714149282893909</v>
+        <v>0.1296099313556413</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05826858783785683</v>
+        <v>0.05620582572857735</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>23</v>
+      </c>
+      <c r="J47" t="n">
+        <v>52</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3233176361.125418</v>
+        <v>3154762863.891047</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09709816788177221</v>
+        <v>0.09737265325587974</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02818574403596436</v>
+        <v>0.03066296392620289</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>52</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1857031866.965162</v>
+        <v>1394244391.941077</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1783811884116903</v>
+        <v>0.1484976588455239</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0322697324150045</v>
+        <v>0.04421837981258613</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2774343609.055915</v>
+        <v>3344061124.105861</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1371250216373165</v>
+        <v>0.1412911090382223</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04600214628906731</v>
+        <v>0.04583712183079607</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>18</v>
+      </c>
+      <c r="J50" t="n">
+        <v>50</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1050839666.771187</v>
+        <v>1236116169.431789</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1244692780328382</v>
+        <v>0.1669017150946464</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05234059578047667</v>
+        <v>0.04215493664672128</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5129073420.395798</v>
+        <v>4104457057.216936</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09580783489564665</v>
+        <v>0.1383052472620797</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04351528181713844</v>
+        <v>0.06129353206638839</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>42</v>
+      </c>
+      <c r="J52" t="n">
+        <v>54</v>
+      </c>
+      <c r="K52" t="n">
+        <v>213.5666089825219</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2868265349.825089</v>
+        <v>2534547482.125507</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1621585824518832</v>
+        <v>0.1925741277780983</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02911680158200214</v>
+        <v>0.03235203012011114</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3477872877.929392</v>
+        <v>3128991511.209159</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1154574266160261</v>
+        <v>0.1063888154743149</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04425607478384772</v>
+        <v>0.03278847612919528</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
+      <c r="J54" t="n">
+        <v>53</v>
+      </c>
+      <c r="K54" t="n">
+        <v>115.3936197215399</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4508392413.966844</v>
+        <v>3661205366.305464</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2246245932119099</v>
+        <v>0.1350703266741254</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02979387811706541</v>
+        <v>0.02426843426911376</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25</v>
+      </c>
+      <c r="J55" t="n">
+        <v>53</v>
+      </c>
+      <c r="K55" t="n">
+        <v>140.5262015703136</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1366720163.368656</v>
+        <v>1885117856.097683</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1378169000068667</v>
+        <v>0.1603149004647827</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03620622576184341</v>
+        <v>0.03768044173926506</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3276597529.957957</v>
+        <v>4099421922.124413</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1442379845312043</v>
+        <v>0.1709716138657104</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01944106424046473</v>
+        <v>0.01735142832045784</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>19</v>
+      </c>
+      <c r="J57" t="n">
+        <v>54</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1156214359.474251</v>
+        <v>1800849341.862245</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1514886882390587</v>
+        <v>0.1288508402065431</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03120727684467174</v>
+        <v>0.02472995318461887</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4625579658.787247</v>
+        <v>3525166664.985318</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09788788302107967</v>
+        <v>0.1035954632313071</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03746901648616367</v>
+        <v>0.04109645542561777</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>53</v>
+      </c>
+      <c r="K59" t="n">
+        <v>130.6634849366265</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3580009240.834071</v>
+        <v>2838658400.04327</v>
       </c>
       <c r="F60" t="n">
-        <v>0.199813333323513</v>
+        <v>0.1729610313136582</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02013772492255834</v>
+        <v>0.02106758921779867</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2699023900.430017</v>
+        <v>2722538119.883743</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1489286460668859</v>
+        <v>0.1135010628416779</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0305937341439998</v>
+        <v>0.02975339684879162</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1408092309.825061</v>
+        <v>2018999291.61223</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1681357848809941</v>
+        <v>0.172374332710756</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03840602796069534</v>
+        <v>0.03412173702787819</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5233742426.711188</v>
+        <v>5136457693.665254</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09247194589275586</v>
+        <v>0.07716414130819506</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03449882707959463</v>
+        <v>0.04092047354031473</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>54</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4664101722.001076</v>
+        <v>5428687675.222708</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1737555102267707</v>
+        <v>0.1501321377160247</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02469667953384242</v>
+        <v>0.02599406047797223</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="n">
+        <v>53</v>
+      </c>
+      <c r="K64" t="n">
+        <v>189.952954507258</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2732,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5812638227.384572</v>
+        <v>4890956750.655168</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1227457085680952</v>
+        <v>0.1182762935440522</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02899712463248404</v>
+        <v>0.02545182419822151</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>43</v>
+      </c>
+      <c r="J65" t="n">
+        <v>54</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4739441153.88456</v>
+        <v>5501308635.360371</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1189168419233034</v>
+        <v>0.1358428471824519</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03371954571678097</v>
+        <v>0.03225883310645426</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>27</v>
+      </c>
+      <c r="J66" t="n">
+        <v>53</v>
+      </c>
+      <c r="K66" t="n">
+        <v>186.2690070817466</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3495549661.288463</v>
+        <v>3176418946.740199</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07668491180206882</v>
+        <v>0.1017958030431723</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04385469465259632</v>
+        <v>0.04603145790779475</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5568211701.784404</v>
+        <v>5253656078.783523</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1122706052560521</v>
+        <v>0.09961981090419152</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04886526305178304</v>
+        <v>0.04131800587809033</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>27</v>
+      </c>
+      <c r="J68" t="n">
+        <v>53</v>
+      </c>
+      <c r="K68" t="n">
+        <v>191.6403341156512</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2056652830.725317</v>
+        <v>2048492985.279138</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1802314615084387</v>
+        <v>0.1812794987843046</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04935362101689376</v>
+        <v>0.04174567851715571</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3618310828.524557</v>
+        <v>3503616935.949609</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07959795554589487</v>
+        <v>0.08630820154233715</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03042075325542392</v>
+        <v>0.04707063217567299</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>54</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4938299656.613716</v>
+        <v>3490697227.465114</v>
       </c>
       <c r="F71" t="n">
-        <v>0.129924547465808</v>
+        <v>0.1720368142728824</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03175586771349431</v>
+        <v>0.02845529393379535</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>43</v>
+      </c>
+      <c r="J71" t="n">
+        <v>54</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1806207895.48021</v>
+        <v>1406792127.157428</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1067563862632385</v>
+        <v>0.07661671445767393</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04304495893901462</v>
+        <v>0.04494207364201524</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2795934213.409472</v>
+        <v>3459343490.921511</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1068384911759122</v>
+        <v>0.1046042387460879</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04094395852447159</v>
+        <v>0.03197703676674644</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3993125350.238957</v>
+        <v>3856912317.781185</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1325839710545009</v>
+        <v>0.1483250062542927</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02277825393696748</v>
+        <v>0.02406099396318616</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>17</v>
+      </c>
+      <c r="J74" t="n">
+        <v>54</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2373997242.631623</v>
+        <v>1960264222.727855</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1079461263160446</v>
+        <v>0.1625246576833944</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02660096563942171</v>
+        <v>0.03352559647055466</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3283762063.810087</v>
+        <v>4777131593.822509</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1121401024001403</v>
+        <v>0.117246298597859</v>
       </c>
       <c r="G76" t="n">
-        <v>0.021572550771312</v>
+        <v>0.02274740870041184</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+      <c r="J76" t="n">
+        <v>53</v>
+      </c>
+      <c r="K76" t="n">
+        <v>164.0639211952216</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2114475701.915586</v>
+        <v>1890281356.125937</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1152997250377553</v>
+        <v>0.1406293607829761</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02519041472402755</v>
+        <v>0.02581190288799899</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4599589801.160537</v>
+        <v>4718474814.229607</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08799636578484918</v>
+        <v>0.09792640923062489</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04786759823482439</v>
+        <v>0.04505545930950232</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
+      <c r="J78" t="n">
+        <v>54</v>
+      </c>
+      <c r="K78" t="n">
+        <v>201.4404099531168</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1212693820.228023</v>
+        <v>1496465100.077859</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1071074965500247</v>
+        <v>0.155920897238663</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03688337486299655</v>
+        <v>0.02505721944813492</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5021867868.729824</v>
+        <v>4990523695.241728</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07859486476243434</v>
+        <v>0.1059728353451134</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03301114775015164</v>
+        <v>0.02761126058860092</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26</v>
+      </c>
+      <c r="J80" t="n">
+        <v>53</v>
+      </c>
+      <c r="K80" t="n">
+        <v>160.2886832245765</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3249938529.164693</v>
+        <v>4985057948.452329</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1159654819943262</v>
+        <v>0.08743964105200404</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0329836409127305</v>
+        <v>0.02075649095210104</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24</v>
+      </c>
+      <c r="J81" t="n">
+        <v>53</v>
+      </c>
+      <c r="K81" t="n">
+        <v>162.6246707684881</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3747458801.223745</v>
+        <v>3764744643.988324</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2051416034685345</v>
+        <v>0.1724681704634019</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02079376430566895</v>
+        <v>0.02534297207296732</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>31</v>
+      </c>
+      <c r="J82" t="n">
+        <v>53</v>
+      </c>
+      <c r="K82" t="n">
+        <v>174.2374990919801</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3376,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2231563982.96794</v>
+        <v>1963991504.287615</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1359198342864066</v>
+        <v>0.1300123133196324</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03478803592113838</v>
+        <v>0.03569792795177576</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3411,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2588118990.719564</v>
+        <v>2403921348.930593</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1045760516142307</v>
+        <v>0.07911319400786773</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03241810512960754</v>
+        <v>0.05041295100387341</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2352140039.66393</v>
+        <v>2328869824.028708</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1846893100583062</v>
+        <v>0.1620051335902829</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03486000047706239</v>
+        <v>0.04852672149096644</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>52</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2173671324.322441</v>
+        <v>2632390332.6037</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1473318438093034</v>
+        <v>0.1708162118716114</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02409201877239868</v>
+        <v>0.02098876843536222</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3516,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1092886270.065048</v>
+        <v>1148956782.776495</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1182702019627823</v>
+        <v>0.1888660798768329</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03642288394478277</v>
+        <v>0.03809484582368047</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2564342022.234903</v>
+        <v>2589180237.730759</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1094177202521771</v>
+        <v>0.1122291121061242</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03993016791376922</v>
+        <v>0.03617748915051802</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>46</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3345871768.442581</v>
+        <v>2565490162.980226</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1485357765708413</v>
+        <v>0.156247023814495</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03346585105560369</v>
+        <v>0.03980996114393754</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1552477769.352995</v>
+        <v>1884743395.255608</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09731576597035151</v>
+        <v>0.1141890729502327</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04634612441964586</v>
+        <v>0.04479044710951792</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1840493963.579157</v>
+        <v>1970331665.311297</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1547826790580619</v>
+        <v>0.1247781935851828</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04963086285365483</v>
+        <v>0.05281159007910066</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2330029929.938108</v>
+        <v>2757798772.351804</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09382114508330411</v>
+        <v>0.07594629951323696</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0403309680461497</v>
+        <v>0.03244188682735619</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3480072289.031173</v>
+        <v>3455366193.623795</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08981754421119625</v>
+        <v>0.1344608539265345</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03717163690418827</v>
+        <v>0.03321357184187509</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>23</v>
+      </c>
+      <c r="J93" t="n">
+        <v>54</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2462341986.480759</v>
+        <v>2266191487.584759</v>
       </c>
       <c r="F94" t="n">
-        <v>0.146589373393873</v>
+        <v>0.1635502143104674</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03505039374838573</v>
+        <v>0.03372205001632209</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2370984462.311554</v>
+        <v>1977145008.468883</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09440261099139255</v>
+        <v>0.1109009958285013</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03542580673245388</v>
+        <v>0.03480876438427524</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2239233117.84853</v>
+        <v>2010598935.555492</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1249352796055078</v>
+        <v>0.120320213846284</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03765248564199173</v>
+        <v>0.03936905833108766</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3757267375.462586</v>
+        <v>3778994447.834788</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1090275202147248</v>
+        <v>0.1634618073381718</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02906855153389122</v>
+        <v>0.02678822495266111</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>26</v>
+      </c>
+      <c r="J97" t="n">
+        <v>54</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2801251425.298907</v>
+        <v>2769808431.49415</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1123215640654156</v>
+        <v>0.09909949635710688</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0215271797039022</v>
+        <v>0.02416466307983674</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>52</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2981857831.86014</v>
+        <v>2418637005.294837</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1215492545803118</v>
+        <v>0.1430511593043921</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02373061008756166</v>
+        <v>0.02954804338161901</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3828737742.811833</v>
+        <v>3869132334.610794</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1379346221510144</v>
+        <v>0.1233475173626709</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02680487099242613</v>
+        <v>0.02291689788030607</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>23</v>
+      </c>
+      <c r="J100" t="n">
+        <v>54</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2729513859.893235</v>
+        <v>3204230232.85161</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1917863014528234</v>
+        <v>0.1990577189710833</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05768351287122021</v>
+        <v>0.05482401454244342</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
